--- a/jellybeans.xlsx
+++ b/jellybeans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edjayaku\Documents\Electronic_standard\electronics_standard_cheatsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10977E9-3AA3-4CE4-B071-C11D6DCF0E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3574C4F4-5DD6-4172-A821-5FBE90EDC32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{33535506-4AF8-4AA1-B230-C00954CB4DDB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Jelly Bean Components</t>
   </si>
@@ -85,13 +85,49 @@
   </si>
   <si>
     <t>TL431</t>
+  </si>
+  <si>
+    <t>NMOS</t>
+  </si>
+  <si>
+    <t>2N7000</t>
+  </si>
+  <si>
+    <t>Id min at 5V Vgs -&gt; 60 mA</t>
+  </si>
+  <si>
+    <t>BJT PNP</t>
+  </si>
+  <si>
+    <t>2N2907</t>
+  </si>
+  <si>
+    <t>2N2222</t>
+  </si>
+  <si>
+    <t>BJT NPN</t>
+  </si>
+  <si>
+    <t>OP-AMP</t>
+  </si>
+  <si>
+    <t>LM358N</t>
+  </si>
+  <si>
+    <t>bss138k</t>
+  </si>
+  <si>
+    <t>Comparator</t>
+  </si>
+  <si>
+    <t>LM311</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,13 +135,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -120,8 +175,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1630F7-4203-484E-854D-E3D0E4675574}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,13 +507,13 @@
     <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -495,8 +553,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -510,8 +568,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -520,7 +578,66 @@
         <v>11</v>
       </c>
     </row>
+    <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>